--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_17-04.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_17-04.xlsx
@@ -68,6 +68,9 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -108,6 +111,9 @@
   </si>
   <si>
     <t>3:0</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -1005,17 +1011,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1023,7 +1029,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1031,13 +1037,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1057,17 +1063,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1075,7 +1081,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1083,13 +1089,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>522.5</v>
+        <v>18</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1109,13 +1115,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>31</v>
+        <v>522.5</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1135,13 +1141,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1153,7 +1159,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1161,17 +1167,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1187,17 +1193,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1213,17 +1219,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,17 +1245,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1257,7 +1263,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1265,17 +1271,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1283,7 +1289,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1291,13 +1297,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>47.5</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1309,7 +1315,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1317,17 +1323,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1343,17 +1349,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>40</v>
+        <v>47.5</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1361,7 +1367,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1369,13 +1375,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1387,7 +1393,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1395,13 +1401,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1421,17 +1427,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1447,13 +1453,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1465,7 +1471,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1473,17 +1479,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1491,7 +1497,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1499,13 +1505,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1517,7 +1523,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1525,17 +1531,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>15.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1551,13 +1557,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>85.560000000000002</v>
+        <v>190</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1577,13 +1583,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>39</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1603,13 +1609,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>65</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1629,17 +1635,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1647,7 +1653,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1655,17 +1661,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>27.329999999999998</v>
+        <v>65</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1673,7 +1679,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1681,13 +1687,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1707,17 +1713,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>277.5</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1725,7 +1731,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1733,17 +1739,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1751,7 +1757,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1759,17 +1765,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>32</v>
+        <v>277.5</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1777,7 +1783,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1785,17 +1791,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1803,7 +1809,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1811,17 +1817,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1837,17 +1843,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1855,7 +1861,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1869,7 +1875,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1881,7 +1887,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1889,17 +1895,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1921,7 +1927,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1941,17 +1947,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>56.399999999999999</v>
+        <v>45</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1959,7 +1965,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1967,17 +1973,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1985,7 +1991,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1993,17 +1999,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>30</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2019,13 +2025,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2037,7 +2043,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2045,13 +2051,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>65.75</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2063,7 +2069,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2071,17 +2077,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2097,17 +2103,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>80</v>
+        <v>65.75</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2123,17 +2129,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2149,17 +2155,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2175,17 +2181,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2201,13 +2207,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2227,13 +2233,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2245,7 +2251,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2253,13 +2259,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2271,7 +2277,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2279,17 +2285,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>31</v>
+        <v>2.5</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2305,13 +2311,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2331,17 +2337,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2349,7 +2355,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2357,13 +2363,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2375,7 +2381,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2383,17 +2389,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2401,7 +2407,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2409,13 +2415,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2427,7 +2433,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2435,13 +2441,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2461,13 +2467,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2479,7 +2485,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2487,13 +2493,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2505,7 +2511,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2513,13 +2519,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>19.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2545,7 +2551,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2565,51 +2571,103 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="K69" s="10">
-        <v>3696.04</v>
-      </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="11">
+    <row r="69" ht="24.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>66</v>
+      </c>
+      <c t="s" r="B69" s="7">
         <v>100</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c t="s" r="F70" s="12">
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c t="s" r="H69" s="8">
+        <v>15</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="9">
+        <v>20</v>
+      </c>
+      <c r="M69" s="9"/>
+      <c t="s" r="N69" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" ht="25.5" customHeight="1">
+      <c r="A70" s="6">
+        <v>67</v>
+      </c>
+      <c t="s" r="B70" s="7">
         <v>101</v>
       </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c t="s" r="I70" s="14">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c t="s" r="H70" s="8">
+        <v>45</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9">
+        <v>30</v>
+      </c>
+      <c r="M70" s="9"/>
+      <c t="s" r="N70" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="K71" s="10">
+        <v>3767.04</v>
+      </c>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="11">
         <v>102</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c t="s" r="F72" s="12">
+        <v>103</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c t="s" r="I72" s="14">
+        <v>104</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="212">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2812,10 +2870,16 @@
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:N70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:N72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
